--- a/aa-archive/books_spreadsheet_out copy.xlsx
+++ b/aa-archive/books_spreadsheet_out copy.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\p\gls01_workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C25F9CC-A348-451D-A39B-C457760A65C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4348FA3-239D-4AAC-9A1D-DF7334429FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Book Hoard" sheetId="2" r:id="rId2"/>
+    <sheet name="Book Hoard" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="GLS" localSheetId="1">'Book Hoard'!$A$1:$AV$1</definedName>
+    <definedName name="GLS" localSheetId="0">'Book Hoard'!$A$1:$AV$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -41,6 +40,12 @@
     <t>weight</t>
   </si>
   <si>
+    <t>current_language</t>
+  </si>
+  <si>
+    <t>original_language</t>
+  </si>
+  <si>
     <t>topic</t>
   </si>
   <si>
@@ -59,6 +64,9 @@
     <t>complexity_esoteric</t>
   </si>
   <si>
+    <t>fraction_complete</t>
+  </si>
+  <si>
     <t>market_value</t>
   </si>
   <si>
@@ -71,12 +79,6 @@
     <t>translator_full_name</t>
   </si>
   <si>
-    <t>current_language</t>
-  </si>
-  <si>
-    <t>original_language</t>
-  </si>
-  <si>
     <t>book_title_flavor</t>
   </si>
   <si>
@@ -93,9 +95,6 @@
   </si>
   <si>
     <t>number_extant_available_to_place</t>
-  </si>
-  <si>
-    <t>fraction_complete</t>
   </si>
   <si>
     <t>rarity_modifier</t>
@@ -191,9 +190,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -534,18 +532,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -559,29 +545,29 @@
     <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="137.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="48.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="36.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="142.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="2" customWidth="1"/>
-    <col min="21" max="21" width="17.140625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="24" style="2" customWidth="1"/>
-    <col min="23" max="23" width="34" style="2" customWidth="1"/>
-    <col min="24" max="24" width="19.28515625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="71.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="69.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="32" style="3" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="3" customWidth="1"/>
     <col min="26" max="26" width="34.42578125" style="1" customWidth="1"/>
-    <col min="27" max="29" width="9.140625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="32" width="9.140625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">

--- a/aa-archive/books_spreadsheet_out copy.xlsx
+++ b/aa-archive/books_spreadsheet_out copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\p\gls01_workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4348FA3-239D-4AAC-9A1D-DF7334429FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C40B6E2-FE77-4728-9382-33459BFD664A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
     <t>author_sex</t>
   </si>
   <si>
-    <t>translator</t>
+    <t>translator_name</t>
   </si>
   <si>
     <t>translator_nationality</t>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +187,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -214,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,10 +234,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV1"/>
+  <dimension ref="A1:AX1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -542,7 +554,7 @@
   <cols>
     <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
@@ -556,8 +568,8 @@
     <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
     <col min="16" max="16" width="71.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="42" style="1" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="69.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="15.7109375" style="2" customWidth="1"/>
@@ -566,155 +578,162 @@
     <col min="24" max="24" width="32" style="3" customWidth="1"/>
     <col min="25" max="25" width="16.7109375" style="3" customWidth="1"/>
     <col min="26" max="26" width="34.42578125" style="1" customWidth="1"/>
-    <col min="27" max="32" width="9.140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="27" max="35" width="9.140625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="15.85546875" style="1" customWidth="1"/>
+    <col min="37" max="38" width="9.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.28515625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.7109375" style="1" customWidth="1"/>
+    <col min="41" max="54" width="9.140625" style="1" customWidth="1"/>
+    <col min="55" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
